--- a/aqtest/ESL_aquifer_test_data.xlsx
+++ b/aqtest/ESL_aquifer_test_data.xlsx
@@ -5,16 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\aqtest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088AB3EC-82C6-4F64-942C-9C39DDA611E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6125EB0-C059-4712-B07E-AA78E42C5E49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17805" yWindow="15" windowWidth="11100" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17700" yWindow="15" windowWidth="11100" windowHeight="11385" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chemico_Metals" sheetId="1" r:id="rId1"/>
-    <sheet name="Olin" sheetId="2" r:id="rId2"/>
+    <sheet name="Olin_3" sheetId="2" r:id="rId2"/>
+    <sheet name="Olin_4" sheetId="3" r:id="rId3"/>
+    <sheet name="Olin_5" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,17 +34,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
   <si>
     <t>time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>dtw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>drawdwon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -374,8 +372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C25"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -388,7 +386,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -396,7 +394,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.86</v>
+        <v>26.6</v>
       </c>
       <c r="C2">
         <f>B2-$B$2</f>
@@ -408,11 +406,11 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>32.44</v>
+        <v>26.87</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C25" si="0">B3-$B$2</f>
-        <v>6.5799999999999983</v>
+        <v>0.26999999999999957</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -420,11 +418,11 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>32.42</v>
+        <v>26.98</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>6.5600000000000023</v>
+        <v>0.37999999999999901</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -432,11 +430,11 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>32.46</v>
+        <v>27.08</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>6.6000000000000014</v>
+        <v>0.47999999999999687</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -444,11 +442,11 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>32.54</v>
+        <v>27.14</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>6.68</v>
+        <v>0.53999999999999915</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -456,11 +454,11 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>32.54</v>
+        <v>27.16</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>6.68</v>
+        <v>0.55999999999999872</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -468,11 +466,11 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>32.58</v>
+        <v>27.21</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>6.7199999999999989</v>
+        <v>0.60999999999999943</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -480,11 +478,11 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>32.630000000000003</v>
+        <v>27.26</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>6.7700000000000031</v>
+        <v>0.66000000000000014</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -492,11 +490,11 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.64</v>
+        <v>27.3</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>6.7800000000000011</v>
+        <v>0.69999999999999929</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -504,11 +502,11 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.659999999999997</v>
+        <v>27.32</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>6.7999999999999972</v>
+        <v>0.71999999999999886</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -516,11 +514,11 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.68</v>
+        <v>27.34</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>6.82</v>
+        <v>0.73999999999999844</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -528,11 +526,11 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>32.729999999999997</v>
+        <v>27.37</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>6.8699999999999974</v>
+        <v>0.76999999999999957</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -540,11 +538,11 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>32.770000000000003</v>
+        <v>27.44</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>6.9100000000000037</v>
+        <v>0.83999999999999986</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -552,11 +550,11 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>32.840000000000003</v>
+        <v>27.51</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>6.980000000000004</v>
+        <v>0.91000000000000014</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -564,11 +562,11 @@
         <v>25</v>
       </c>
       <c r="B16">
-        <v>32.9</v>
+        <v>27.55</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>7.0399999999999991</v>
+        <v>0.94999999999999929</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -576,11 +574,11 @@
         <v>30</v>
       </c>
       <c r="B17">
-        <v>32.94</v>
+        <v>27.59</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>7.0799999999999983</v>
+        <v>0.98999999999999844</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -588,11 +586,11 @@
         <v>40</v>
       </c>
       <c r="B18">
-        <v>33.020000000000003</v>
+        <v>27.68</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>7.1600000000000037</v>
+        <v>1.0799999999999983</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -600,11 +598,11 @@
         <v>50</v>
       </c>
       <c r="B19">
-        <v>33.11</v>
+        <v>27.72</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>7.25</v>
+        <v>1.1199999999999974</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -612,11 +610,11 @@
         <v>60</v>
       </c>
       <c r="B20">
-        <v>33.1</v>
+        <v>27.77</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>7.240000000000002</v>
+        <v>1.1699999999999982</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -624,11 +622,11 @@
         <v>70</v>
       </c>
       <c r="B21">
-        <v>33.21</v>
+        <v>27.84</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>7.3500000000000014</v>
+        <v>1.2399999999999984</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -636,11 +634,11 @@
         <v>80</v>
       </c>
       <c r="B22">
-        <v>33.200000000000003</v>
+        <v>27.86</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>7.3400000000000034</v>
+        <v>1.259999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -648,11 +646,11 @@
         <v>90</v>
       </c>
       <c r="B23">
-        <v>33.25</v>
+        <v>27.87</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>7.3900000000000006</v>
+        <v>1.2699999999999996</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -660,11 +658,11 @@
         <v>100</v>
       </c>
       <c r="B24">
-        <v>33.299999999999997</v>
+        <v>27.89</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>7.4399999999999977</v>
+        <v>1.2899999999999991</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -672,11 +670,11 @@
         <v>120</v>
       </c>
       <c r="B25">
-        <v>33.31</v>
+        <v>27.94</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>7.4500000000000028</v>
+        <v>1.3399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -687,10 +685,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C447025-15CB-4A31-A6B4-E7B1DB74B7B5}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -711,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.5500000000000007</v>
+        <v>10.67</v>
       </c>
       <c r="C2">
         <f>B2-$B$2</f>
@@ -723,11 +721,11 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.76</v>
+        <v>10.74</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C28" si="0">B3-$B$2</f>
-        <v>4.2099999999999991</v>
+        <f t="shared" ref="C3:C11" si="0">B3-$B$2</f>
+        <v>7.0000000000000284E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -735,11 +733,11 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.77</v>
+        <v>10.79</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>4.2199999999999989</v>
+        <v>0.11999999999999922</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -747,11 +745,11 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.79</v>
+        <v>10.83</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>4.2399999999999984</v>
+        <v>0.16000000000000014</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -759,11 +757,11 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.87</v>
+        <v>10.85</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>4.3199999999999985</v>
+        <v>0.17999999999999972</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -771,11 +769,11 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.87</v>
+        <v>10.88</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>4.3199999999999985</v>
+        <v>0.21000000000000085</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -783,11 +781,11 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.94</v>
+        <v>10.9</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>4.3899999999999988</v>
+        <v>0.23000000000000043</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -795,11 +793,11 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.97</v>
+        <v>10.92</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>4.42</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -807,227 +805,749 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.03</v>
+        <v>10.95</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>4.4799999999999986</v>
+        <v>0.27999999999999936</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>13.08</v>
+        <v>10.98</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>4.5299999999999994</v>
+        <v>0.3100000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>13.11</v>
+        <v>10.99</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
-        <v>4.5599999999999987</v>
+        <f>B12-$B$2</f>
+        <v>0.32000000000000028</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>13.16</v>
+        <v>11.04</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
-        <v>4.6099999999999994</v>
+        <f>B13-$B$2</f>
+        <v>0.36999999999999922</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>13.28</v>
+        <v>11.09</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
-        <v>4.7299999999999986</v>
+        <f>B14-$B$2</f>
+        <v>0.41999999999999993</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>13.33</v>
+        <v>11.14</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
-        <v>4.7799999999999994</v>
+        <f>B15-$B$2</f>
+        <v>0.47000000000000064</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>13.39</v>
+        <v>11.2</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
-        <v>4.84</v>
+        <f>B16-$B$2</f>
+        <v>0.52999999999999936</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B17">
-        <v>13.46</v>
+        <v>11.25</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
-        <v>4.91</v>
+        <f>B17-$B$2</f>
+        <v>0.58000000000000007</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B18">
-        <v>13.55</v>
+        <v>11.33</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>B18-$B$2</f>
+        <v>0.66000000000000014</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B19">
-        <v>13.61</v>
+        <v>11.39</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
-        <v>5.0599999999999987</v>
+        <f>B19-$B$2</f>
+        <v>0.72000000000000064</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B20">
-        <v>13.62</v>
+        <v>11.44</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
-        <v>5.0699999999999985</v>
+        <f>B20-$B$2</f>
+        <v>0.76999999999999957</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B21">
-        <v>13.66</v>
+        <v>11.48</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
-        <v>5.1099999999999994</v>
+        <f>B21-$B$2</f>
+        <v>0.8100000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B22">
-        <v>13.68</v>
+        <v>11.52</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
-        <v>5.129999999999999</v>
+        <f>B22-$B$2</f>
+        <v>0.84999999999999964</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B23">
-        <v>13.4</v>
+        <v>11.54</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
-        <v>4.8499999999999996</v>
+        <f>B23-$B$2</f>
+        <v>0.86999999999999922</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B24">
-        <v>13.73</v>
+        <v>11.57</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
-        <v>5.18</v>
+        <f>B24-$B$2</f>
+        <v>0.90000000000000036</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="B25">
-        <v>13.75</v>
+        <v>11.62</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
-        <v>5.1999999999999993</v>
+        <f>B25-$B$2</f>
+        <v>0.94999999999999929</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="B26">
-        <v>13.8</v>
+        <v>11.65</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
-        <v>5.25</v>
+        <f>B26-$B$2</f>
+        <v>0.98000000000000043</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="B27">
-        <v>13.85</v>
+        <v>11.69</v>
       </c>
       <c r="C27">
-        <f t="shared" si="0"/>
-        <v>5.2999999999999989</v>
+        <f>B27-$B$2</f>
+        <v>1.0199999999999996</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
+        <v>250</v>
+      </c>
+      <c r="B28">
+        <v>11.74</v>
+      </c>
+      <c r="C28">
+        <f>B28-$B$2</f>
+        <v>1.0700000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>300</v>
       </c>
-      <c r="B28">
-        <v>13.86</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>5.3099999999999987</v>
+      <c r="B29">
+        <v>111.76</v>
+      </c>
+      <c r="C29">
+        <f>B29-$B$2</f>
+        <v>101.09</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042E433C-B323-444B-B142-5359AA6C44BF}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>11.1</v>
+      </c>
+      <c r="C2">
+        <f>B2-$B$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>11.15</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C11" si="0">B3-$B$2</f>
+        <v>5.0000000000000711E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>11.18</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>11.2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>11.24</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.14000000000000057</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>11.28</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.17999999999999972</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>11.3</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>11.35</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>11.4</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000071</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>60</v>
+      </c>
+      <c r="B11">
+        <v>11.42</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.32000000000000028</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>70</v>
+      </c>
+      <c r="B12">
+        <v>11.46</v>
+      </c>
+      <c r="C12">
+        <f>B12-$B$2</f>
+        <v>0.36000000000000121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>80</v>
+      </c>
+      <c r="B13">
+        <v>11.5</v>
+      </c>
+      <c r="C13">
+        <f>B13-$B$2</f>
+        <v>0.40000000000000036</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>90</v>
+      </c>
+      <c r="B14">
+        <v>11.53</v>
+      </c>
+      <c r="C14">
+        <f>B14-$B$2</f>
+        <v>0.42999999999999972</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>100</v>
+      </c>
+      <c r="B15">
+        <v>11.54</v>
+      </c>
+      <c r="C15">
+        <f>B15-$B$2</f>
+        <v>0.4399999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>120</v>
+      </c>
+      <c r="B16">
+        <v>11.58</v>
+      </c>
+      <c r="C16">
+        <f>B16-$B$2</f>
+        <v>0.48000000000000043</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>150</v>
+      </c>
+      <c r="B17">
+        <v>11.6</v>
+      </c>
+      <c r="C17">
+        <f>B17-$B$2</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>200</v>
+      </c>
+      <c r="B18">
+        <v>11.66</v>
+      </c>
+      <c r="C18">
+        <f>B18-$B$2</f>
+        <v>0.5600000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>250</v>
+      </c>
+      <c r="B19">
+        <v>11.68</v>
+      </c>
+      <c r="C19">
+        <f>B19-$B$2</f>
+        <v>0.58000000000000007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>300</v>
+      </c>
+      <c r="B20">
+        <v>11.7</v>
+      </c>
+      <c r="C20">
+        <f>B20-$B$2</f>
+        <v>0.59999999999999964</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C56349F-C85E-472D-9C35-272A7271FF57}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10.36</v>
+      </c>
+      <c r="C2">
+        <f>B2-$B$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>10.39</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C11" si="0">B3-$B$2</f>
+        <v>3.0000000000001137E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>10.4</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000924E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>10.41</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000711E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>10.43</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000284E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>10.44</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>10.45</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>8.9999999999999858E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>10.48</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.12000000000000099</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>10.49</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.13000000000000078</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>60</v>
+      </c>
+      <c r="B11">
+        <v>10.5</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.14000000000000057</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>70</v>
+      </c>
+      <c r="B12">
+        <v>10.53</v>
+      </c>
+      <c r="C12">
+        <f>B12-$B$2</f>
+        <v>0.16999999999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>80</v>
+      </c>
+      <c r="B13">
+        <v>10.55</v>
+      </c>
+      <c r="C13">
+        <f>B13-$B$2</f>
+        <v>0.19000000000000128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>90</v>
+      </c>
+      <c r="B14">
+        <v>10.56</v>
+      </c>
+      <c r="C14">
+        <f>B14-$B$2</f>
+        <v>0.20000000000000107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>100</v>
+      </c>
+      <c r="B15">
+        <v>10.58</v>
+      </c>
+      <c r="C15">
+        <f>B15-$B$2</f>
+        <v>0.22000000000000064</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>120</v>
+      </c>
+      <c r="B16">
+        <v>10.59</v>
+      </c>
+      <c r="C16">
+        <f>B16-$B$2</f>
+        <v>0.23000000000000043</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>150</v>
+      </c>
+      <c r="B17">
+        <v>10.62</v>
+      </c>
+      <c r="C17">
+        <f>B17-$B$2</f>
+        <v>0.25999999999999979</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>200</v>
+      </c>
+      <c r="B18">
+        <v>10.65</v>
+      </c>
+      <c r="C18">
+        <f>B18-$B$2</f>
+        <v>0.29000000000000092</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>250</v>
+      </c>
+      <c r="B19">
+        <v>10.68</v>
+      </c>
+      <c r="C19">
+        <f>B19-$B$2</f>
+        <v>0.32000000000000028</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>300</v>
+      </c>
+      <c r="B20">
+        <v>10.7</v>
+      </c>
+      <c r="C20">
+        <f>B20-$B$2</f>
+        <v>0.33999999999999986</v>
       </c>
     </row>
   </sheetData>

--- a/aqtest/ESL_aquifer_test_data.xlsx
+++ b/aqtest/ESL_aquifer_test_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\aqtest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6125EB0-C059-4712-B07E-AA78E42C5E49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28329B82-4B88-44F5-89DC-8C79E2B014F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17700" yWindow="15" windowWidth="11100" windowHeight="11385" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chemico_Metals" sheetId="1" r:id="rId1"/>
@@ -372,8 +372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -688,6 +688,370 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10.67</v>
+      </c>
+      <c r="C2">
+        <f>B2-$B$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10.74</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C11" si="0">B3-$B$2</f>
+        <v>7.0000000000000284E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>10.79</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.11999999999999922</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>10.83</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.16000000000000014</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>10.85</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.17999999999999972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>10.88</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.21000000000000085</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>10.9</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.23000000000000043</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>10.92</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>10.95</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.27999999999999936</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>10.98</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.3100000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>10.99</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:C29" si="1">B12-$B$2</f>
+        <v>0.32000000000000028</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>11.04</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>0.36999999999999922</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>11.09</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>0.41999999999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>11.14</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>0.47000000000000064</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>11.2</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>0.52999999999999936</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>11.25</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>0.58000000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>11.33</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>0.66000000000000014</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>50</v>
+      </c>
+      <c r="B19">
+        <v>11.39</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>0.72000000000000064</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>60</v>
+      </c>
+      <c r="B20">
+        <v>11.44</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>0.76999999999999957</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>70</v>
+      </c>
+      <c r="B21">
+        <v>11.48</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>0.8100000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>80</v>
+      </c>
+      <c r="B22">
+        <v>11.52</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>0.84999999999999964</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>90</v>
+      </c>
+      <c r="B23">
+        <v>11.54</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>0.86999999999999922</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>100</v>
+      </c>
+      <c r="B24">
+        <v>11.57</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>0.90000000000000036</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>120</v>
+      </c>
+      <c r="B25">
+        <v>11.62</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>0.94999999999999929</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>150</v>
+      </c>
+      <c r="B26">
+        <v>11.65</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>0.98000000000000043</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>200</v>
+      </c>
+      <c r="B27">
+        <v>11.69</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>1.0199999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>250</v>
+      </c>
+      <c r="B28">
+        <v>11.74</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>1.0700000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>300</v>
+      </c>
+      <c r="B29">
+        <v>11.76</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>1.0899999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042E433C-B323-444B-B142-5359AA6C44BF}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -709,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.67</v>
+        <v>11.1</v>
       </c>
       <c r="C2">
         <f>B2-$B$2</f>
@@ -718,369 +1082,6 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>10.74</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C11" si="0">B3-$B$2</f>
-        <v>7.0000000000000284E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>10.79</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>0.11999999999999922</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>10.83</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>0.16000000000000014</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>10.85</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>0.17999999999999972</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>10.88</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>0.21000000000000085</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>10.9</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>0.23000000000000043</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>10.92</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>10.95</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>0.27999999999999936</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>10.98</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>0.3100000000000005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>10.99</v>
-      </c>
-      <c r="C12">
-        <f>B12-$B$2</f>
-        <v>0.32000000000000028</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>11.04</v>
-      </c>
-      <c r="C13">
-        <f>B13-$B$2</f>
-        <v>0.36999999999999922</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>11.09</v>
-      </c>
-      <c r="C14">
-        <f>B14-$B$2</f>
-        <v>0.41999999999999993</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>11.14</v>
-      </c>
-      <c r="C15">
-        <f>B15-$B$2</f>
-        <v>0.47000000000000064</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>25</v>
-      </c>
-      <c r="B16">
-        <v>11.2</v>
-      </c>
-      <c r="C16">
-        <f>B16-$B$2</f>
-        <v>0.52999999999999936</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>30</v>
-      </c>
-      <c r="B17">
-        <v>11.25</v>
-      </c>
-      <c r="C17">
-        <f>B17-$B$2</f>
-        <v>0.58000000000000007</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>40</v>
-      </c>
-      <c r="B18">
-        <v>11.33</v>
-      </c>
-      <c r="C18">
-        <f>B18-$B$2</f>
-        <v>0.66000000000000014</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>50</v>
-      </c>
-      <c r="B19">
-        <v>11.39</v>
-      </c>
-      <c r="C19">
-        <f>B19-$B$2</f>
-        <v>0.72000000000000064</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>60</v>
-      </c>
-      <c r="B20">
-        <v>11.44</v>
-      </c>
-      <c r="C20">
-        <f>B20-$B$2</f>
-        <v>0.76999999999999957</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>70</v>
-      </c>
-      <c r="B21">
-        <v>11.48</v>
-      </c>
-      <c r="C21">
-        <f>B21-$B$2</f>
-        <v>0.8100000000000005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>80</v>
-      </c>
-      <c r="B22">
-        <v>11.52</v>
-      </c>
-      <c r="C22">
-        <f>B22-$B$2</f>
-        <v>0.84999999999999964</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>90</v>
-      </c>
-      <c r="B23">
-        <v>11.54</v>
-      </c>
-      <c r="C23">
-        <f>B23-$B$2</f>
-        <v>0.86999999999999922</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>100</v>
-      </c>
-      <c r="B24">
-        <v>11.57</v>
-      </c>
-      <c r="C24">
-        <f>B24-$B$2</f>
-        <v>0.90000000000000036</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>120</v>
-      </c>
-      <c r="B25">
-        <v>11.62</v>
-      </c>
-      <c r="C25">
-        <f>B25-$B$2</f>
-        <v>0.94999999999999929</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>150</v>
-      </c>
-      <c r="B26">
-        <v>11.65</v>
-      </c>
-      <c r="C26">
-        <f>B26-$B$2</f>
-        <v>0.98000000000000043</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>200</v>
-      </c>
-      <c r="B27">
-        <v>11.69</v>
-      </c>
-      <c r="C27">
-        <f>B27-$B$2</f>
-        <v>1.0199999999999996</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>250</v>
-      </c>
-      <c r="B28">
-        <v>11.74</v>
-      </c>
-      <c r="C28">
-        <f>B28-$B$2</f>
-        <v>1.0700000000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>300</v>
-      </c>
-      <c r="B29">
-        <v>111.76</v>
-      </c>
-      <c r="C29">
-        <f>B29-$B$2</f>
-        <v>101.09</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042E433C-B323-444B-B142-5359AA6C44BF}">
-  <dimension ref="A1:C20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>11.1</v>
-      </c>
-      <c r="C2">
-        <f>B2-$B$2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
         <v>5</v>
       </c>
       <c r="B3">
@@ -1195,7 +1196,7 @@
         <v>11.46</v>
       </c>
       <c r="C12">
-        <f>B12-$B$2</f>
+        <f t="shared" ref="C12:C20" si="1">B12-$B$2</f>
         <v>0.36000000000000121</v>
       </c>
     </row>
@@ -1207,7 +1208,7 @@
         <v>11.5</v>
       </c>
       <c r="C13">
-        <f>B13-$B$2</f>
+        <f t="shared" si="1"/>
         <v>0.40000000000000036</v>
       </c>
     </row>
@@ -1219,7 +1220,7 @@
         <v>11.53</v>
       </c>
       <c r="C14">
-        <f>B14-$B$2</f>
+        <f t="shared" si="1"/>
         <v>0.42999999999999972</v>
       </c>
     </row>
@@ -1231,7 +1232,7 @@
         <v>11.54</v>
       </c>
       <c r="C15">
-        <f>B15-$B$2</f>
+        <f t="shared" si="1"/>
         <v>0.4399999999999995</v>
       </c>
     </row>
@@ -1243,7 +1244,7 @@
         <v>11.58</v>
       </c>
       <c r="C16">
-        <f>B16-$B$2</f>
+        <f t="shared" si="1"/>
         <v>0.48000000000000043</v>
       </c>
     </row>
@@ -1255,7 +1256,7 @@
         <v>11.6</v>
       </c>
       <c r="C17">
-        <f>B17-$B$2</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
@@ -1267,7 +1268,7 @@
         <v>11.66</v>
       </c>
       <c r="C18">
-        <f>B18-$B$2</f>
+        <f t="shared" si="1"/>
         <v>0.5600000000000005</v>
       </c>
     </row>
@@ -1279,7 +1280,7 @@
         <v>11.68</v>
       </c>
       <c r="C19">
-        <f>B19-$B$2</f>
+        <f t="shared" si="1"/>
         <v>0.58000000000000007</v>
       </c>
     </row>
@@ -1291,7 +1292,7 @@
         <v>11.7</v>
       </c>
       <c r="C20">
-        <f>B20-$B$2</f>
+        <f t="shared" si="1"/>
         <v>0.59999999999999964</v>
       </c>
     </row>
@@ -1305,8 +1306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C56349F-C85E-472D-9C35-272A7271FF57}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1450,7 +1451,7 @@
         <v>10.53</v>
       </c>
       <c r="C12">
-        <f>B12-$B$2</f>
+        <f t="shared" ref="C12:C20" si="1">B12-$B$2</f>
         <v>0.16999999999999993</v>
       </c>
     </row>
@@ -1462,7 +1463,7 @@
         <v>10.55</v>
       </c>
       <c r="C13">
-        <f>B13-$B$2</f>
+        <f t="shared" si="1"/>
         <v>0.19000000000000128</v>
       </c>
     </row>
@@ -1474,7 +1475,7 @@
         <v>10.56</v>
       </c>
       <c r="C14">
-        <f>B14-$B$2</f>
+        <f t="shared" si="1"/>
         <v>0.20000000000000107</v>
       </c>
     </row>
@@ -1486,7 +1487,7 @@
         <v>10.58</v>
       </c>
       <c r="C15">
-        <f>B15-$B$2</f>
+        <f t="shared" si="1"/>
         <v>0.22000000000000064</v>
       </c>
     </row>
@@ -1498,7 +1499,7 @@
         <v>10.59</v>
       </c>
       <c r="C16">
-        <f>B16-$B$2</f>
+        <f t="shared" si="1"/>
         <v>0.23000000000000043</v>
       </c>
     </row>
@@ -1510,7 +1511,7 @@
         <v>10.62</v>
       </c>
       <c r="C17">
-        <f>B17-$B$2</f>
+        <f t="shared" si="1"/>
         <v>0.25999999999999979</v>
       </c>
     </row>
@@ -1522,7 +1523,7 @@
         <v>10.65</v>
       </c>
       <c r="C18">
-        <f>B18-$B$2</f>
+        <f t="shared" si="1"/>
         <v>0.29000000000000092</v>
       </c>
     </row>
@@ -1534,7 +1535,7 @@
         <v>10.68</v>
       </c>
       <c r="C19">
-        <f>B19-$B$2</f>
+        <f t="shared" si="1"/>
         <v>0.32000000000000028</v>
       </c>
     </row>
@@ -1546,7 +1547,7 @@
         <v>10.7</v>
       </c>
       <c r="C20">
-        <f>B20-$B$2</f>
+        <f t="shared" si="1"/>
         <v>0.33999999999999986</v>
       </c>
     </row>
